--- a/Historicos/remesas_estados.xlsx
+++ b/Historicos/remesas_estados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F59CE5C-E001-430F-987F-EB2F746575CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA953C3-CCFB-4116-96E4-934C64203928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="remesas" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>Yucatán</t>
   </si>
   <si>
-    <t>I trimestre 2003 -I trimestre 2023</t>
+    <t>I trimestre 2003 -II trimestre 2023</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
     <numFmt numFmtId="166" formatCode="&quot;Jul-Sep&quot;\ yyyy"/>
     <numFmt numFmtId="167" formatCode="&quot;Oct-Dic&quot;\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -357,21 +357,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -457,9 +442,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -518,9 +505,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,26 +540,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,26 +575,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,66 +751,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:34" ht="22.7" customHeight="1">
+    <row r="6" spans="1:34" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -961,7 +914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>37622</v>
       </c>
@@ -1065,7 +1018,7 @@
         <v>3170.1266999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>37712</v>
       </c>
@@ -1169,7 +1122,7 @@
         <v>3904.6473000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>37803</v>
       </c>
@@ -1273,7 +1226,7 @@
         <v>4128.1166999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="15">
+    <row r="10" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>37895</v>
       </c>
@@ -1377,7 +1330,7 @@
         <v>3935.7957000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15">
+    <row r="11" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37987</v>
       </c>
@@ -1481,7 +1434,7 @@
         <v>3733.8611999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15">
+    <row r="12" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>38078</v>
       </c>
@@ -1585,7 +1538,7 @@
         <v>4968.6377000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15">
+    <row r="13" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>38169</v>
       </c>
@@ -1689,7 +1642,7 @@
         <v>5028.0245999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15">
+    <row r="14" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>38261</v>
       </c>
@@ -1793,7 +1746,7 @@
         <v>4601.2245000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="15">
+    <row r="15" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>38353</v>
       </c>
@@ -1897,7 +1850,7 @@
         <v>4487.5228999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15">
+    <row r="16" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>38443</v>
       </c>
@@ -2001,7 +1954,7 @@
         <v>5733.8606</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15">
+    <row r="17" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>38534</v>
       </c>
@@ -2105,7 +2058,7 @@
         <v>5785.5140000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15">
+    <row r="18" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>38626</v>
       </c>
@@ -2209,7 +2162,7 @@
         <v>5681.3734000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15">
+    <row r="19" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>38718</v>
       </c>
@@ -2313,7 +2266,7 @@
         <v>5734.3316999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15">
+    <row r="20" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>38808</v>
       </c>
@@ -2417,7 +2370,7 @@
         <v>6947.5631000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15">
+    <row r="21" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>38899</v>
       </c>
@@ -2521,7 +2474,7 @@
         <v>6666.8888999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15">
+    <row r="22" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>38991</v>
       </c>
@@ -2625,7 +2578,7 @@
         <v>6218.0514000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15">
+    <row r="23" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>39083</v>
       </c>
@@ -2729,7 +2682,7 @@
         <v>5916.2313000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15">
+    <row r="24" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>39173</v>
       </c>
@@ -2833,7 +2786,7 @@
         <v>6878.9088000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15">
+    <row r="25" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>39264</v>
       </c>
@@ -2937,7 +2890,7 @@
         <v>6967.7476999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15">
+    <row r="26" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>39356</v>
       </c>
@@ -3041,7 +2994,7 @@
         <v>6295.9301999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15">
+    <row r="27" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>39448</v>
       </c>
@@ -3145,7 +3098,7 @@
         <v>5757.7575999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15">
+    <row r="28" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>39539</v>
       </c>
@@ -3249,7 +3202,7 @@
         <v>6820.8968000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15">
+    <row r="29" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>39630</v>
       </c>
@@ -3353,7 +3306,7 @@
         <v>6394.5241999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15">
+    <row r="30" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>39722</v>
       </c>
@@ -3457,7 +3410,7 @@
         <v>6171.8065999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="15">
+    <row r="31" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39814</v>
       </c>
@@ -3561,7 +3514,7 @@
         <v>5498.8725999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="15">
+    <row r="32" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>39904</v>
       </c>
@@ -3665,7 +3618,7 @@
         <v>5634.3179</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="15">
+    <row r="33" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>39995</v>
       </c>
@@ -3769,7 +3722,7 @@
         <v>5396.8438999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="15">
+    <row r="34" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>40087</v>
       </c>
@@ -3873,7 +3826,7 @@
         <v>4776.2983000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="15">
+    <row r="35" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>40179</v>
       </c>
@@ -3977,7 +3930,7 @@
         <v>4832.1288999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="15">
+    <row r="36" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>40269</v>
       </c>
@@ -4081,7 +4034,7 @@
         <v>5835.8635999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="15">
+    <row r="37" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>40360</v>
       </c>
@@ -4185,7 +4138,7 @@
         <v>5551.1360999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="15">
+    <row r="38" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>40452</v>
       </c>
@@ -4289,7 +4242,7 @@
         <v>5084.7532000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="15">
+    <row r="39" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>40544</v>
       </c>
@@ -4393,7 +4346,7 @@
         <v>5110.1385</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="15">
+    <row r="40" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>40634</v>
       </c>
@@ -4497,7 +4450,7 @@
         <v>6071.7138000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="15">
+    <row r="41" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40725</v>
       </c>
@@ -4601,7 +4554,7 @@
         <v>6136.5735999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="15">
+    <row r="42" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40817</v>
       </c>
@@ -4705,7 +4658,7 @@
         <v>5484.5456000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="15">
+    <row r="43" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40909</v>
       </c>
@@ -4809,7 +4762,7 @@
         <v>5386.2264999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="15">
+    <row r="44" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41000</v>
       </c>
@@ -4913,7 +4866,7 @@
         <v>6470.1481999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="15">
+    <row r="45" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>41091</v>
       </c>
@@ -5017,7 +4970,7 @@
         <v>5413.9413999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="15">
+    <row r="46" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>41183</v>
       </c>
@@ -5121,7 +5074,7 @@
         <v>5168.0060000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="15">
+    <row r="47" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41275</v>
       </c>
@@ -5225,7 +5178,7 @@
         <v>5040.3283000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="15">
+    <row r="48" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41365</v>
       </c>
@@ -5329,7 +5282,7 @@
         <v>6097.0291999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="15">
+    <row r="49" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>41456</v>
       </c>
@@ -5433,7 +5386,7 @@
         <v>5672.2350999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15">
+    <row r="50" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>41548</v>
       </c>
@@ -5537,7 +5490,7 @@
         <v>5493.1585999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15">
+    <row r="51" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41640</v>
       </c>
@@ -5641,7 +5594,7 @@
         <v>5459.7269999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15">
+    <row r="52" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>41730</v>
       </c>
@@ -5745,7 +5698,7 @@
         <v>6166.7767999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15">
+    <row r="53" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>41821</v>
       </c>
@@ -5849,7 +5802,7 @@
         <v>5967.5832</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15">
+    <row r="54" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>41913</v>
       </c>
@@ -5953,7 +5906,7 @@
         <v>6053.1968999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15">
+    <row r="55" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42005</v>
       </c>
@@ -6057,7 +6010,7 @@
         <v>5723.6171000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15">
+    <row r="56" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42095</v>
       </c>
@@ -6161,7 +6114,7 @@
         <v>6353.2556000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15">
+    <row r="57" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>42186</v>
       </c>
@@ -6265,7 +6218,7 @@
         <v>6543.1661999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15">
+    <row r="58" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>42278</v>
       </c>
@@ -6369,7 +6322,7 @@
         <v>6164.7336999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15">
+    <row r="59" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42370</v>
       </c>
@@ -6473,7 +6426,7 @@
         <v>6205.8492999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15">
+    <row r="60" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42461</v>
       </c>
@@ -6577,7 +6530,7 @@
         <v>6961.8252000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15">
+    <row r="61" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>42552</v>
       </c>
@@ -6681,7 +6634,7 @@
         <v>6891.9841999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15">
+    <row r="62" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>42644</v>
       </c>
@@ -6785,7 +6738,7 @@
         <v>6933.6228000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15">
+    <row r="63" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42736</v>
       </c>
@@ -6889,7 +6842,7 @@
         <v>6908.2604000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15">
+    <row r="64" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>42826</v>
       </c>
@@ -6993,7 +6946,7 @@
         <v>7651.6203999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15">
+    <row r="65" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>42917</v>
       </c>
@@ -7097,7 +7050,7 @@
         <v>7706.7997999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15">
+    <row r="66" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43009</v>
       </c>
@@ -7201,7 +7154,7 @@
         <v>8023.8644999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15">
+    <row r="67" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43101</v>
       </c>
@@ -7305,7 +7258,7 @@
         <v>7186.9233999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15">
+    <row r="68" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43191</v>
       </c>
@@ -7409,7 +7362,7 @@
         <v>9057.5627999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15">
+    <row r="69" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>43282</v>
       </c>
@@ -7513,7 +7466,7 @@
         <v>8459.4652000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15">
+    <row r="70" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43374</v>
       </c>
@@ -7617,7 +7570,7 @@
         <v>8973.2757000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15">
+    <row r="71" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43466</v>
       </c>
@@ -7721,7 +7674,7 @@
         <v>7944.7581</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15">
+    <row r="72" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43556</v>
       </c>
@@ -7825,7 +7778,7 @@
         <v>9506.2291000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="15">
+    <row r="73" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>43647</v>
       </c>
@@ -7929,7 +7882,7 @@
         <v>9788.6687999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="15">
+    <row r="74" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>43739</v>
       </c>
@@ -8033,7 +7986,7 @@
         <v>9199.1020000000008</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15">
+    <row r="75" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43831</v>
       </c>
@@ -8137,7 +8090,7 @@
         <v>9397.5704999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15">
+    <row r="76" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43922</v>
       </c>
@@ -8241,7 +8194,7 @@
         <v>9891.8708000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15">
+    <row r="77" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>44013</v>
       </c>
@@ -8345,7 +8298,7 @@
         <v>10676.017400000001</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15">
+    <row r="78" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>44105</v>
       </c>
@@ -8449,7 +8402,7 @@
         <v>10639.095300000001</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="15">
+    <row r="79" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44197</v>
       </c>
@@ -8553,7 +8506,7 @@
         <v>10615.4766</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="17.45" customHeight="1">
+    <row r="80" spans="1:34" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44287</v>
       </c>
@@ -8657,7 +8610,7 @@
         <v>13031.693600000001</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="15">
+    <row r="81" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44378</v>
       </c>
@@ -8761,7 +8714,7 @@
         <v>13702.749299999999</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15">
+    <row r="82" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>44470</v>
       </c>
@@ -8865,7 +8818,7 @@
         <v>14235.9475</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15">
+    <row r="83" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44562</v>
       </c>
@@ -8969,7 +8922,7 @@
         <v>12521.968500000001</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15">
+    <row r="84" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44652</v>
       </c>
@@ -9073,7 +9026,7 @@
         <v>14993.703799999999</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15">
+    <row r="85" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44743</v>
       </c>
@@ -9177,212 +9130,316 @@
         <v>15449.1369</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15">
-      <c r="A86" s="5">
+    <row r="86" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
         <v>44835</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="38">
         <v>230.5326</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="38">
         <v>369.822</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="38">
         <v>67.566900000000004</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="38">
         <v>41.078299999999999</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="38">
         <v>291.67349999999999</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G86" s="38">
         <v>130.51750000000001</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="38">
         <v>939.84829999999999</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="38">
         <v>420.43920000000003</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="38">
         <v>811.23850000000004</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="38">
         <v>359.1422</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="38">
         <v>940.27650000000006</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M86" s="38">
         <v>1325.0126</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N86" s="38">
         <v>767.399</v>
       </c>
-      <c r="O86" s="13">
+      <c r="O86" s="38">
         <v>467.005</v>
       </c>
-      <c r="P86" s="13">
+      <c r="P86" s="38">
         <v>1377.8637000000001</v>
       </c>
-      <c r="Q86" s="13">
+      <c r="Q86" s="38">
         <v>1380.2242000000001</v>
       </c>
-      <c r="R86" s="13">
+      <c r="R86" s="38">
         <v>298.10789999999997</v>
       </c>
-      <c r="S86" s="13">
+      <c r="S86" s="38">
         <v>227.3629</v>
       </c>
-      <c r="T86" s="13">
+      <c r="T86" s="38">
         <v>381.59030000000001</v>
       </c>
-      <c r="U86" s="13">
+      <c r="U86" s="38">
         <v>759.97090000000003</v>
       </c>
-      <c r="V86" s="13">
+      <c r="V86" s="38">
         <v>741.49540000000002</v>
       </c>
-      <c r="W86" s="13">
+      <c r="W86" s="38">
         <v>315.00979999999998</v>
       </c>
-      <c r="X86" s="13">
+      <c r="X86" s="38">
         <v>109.5205</v>
       </c>
-      <c r="Y86" s="13">
+      <c r="Y86" s="38">
         <v>527.03689999999995</v>
       </c>
-      <c r="Z86" s="13">
+      <c r="Z86" s="38">
         <v>309.10820000000001</v>
       </c>
-      <c r="AA86" s="13">
+      <c r="AA86" s="38">
         <v>231.3057</v>
       </c>
-      <c r="AB86" s="13">
+      <c r="AB86" s="38">
         <v>113.2028</v>
       </c>
-      <c r="AC86" s="13">
+      <c r="AC86" s="38">
         <v>298.3578</v>
       </c>
-      <c r="AD86" s="13">
+      <c r="AD86" s="38">
         <v>101.8398</v>
       </c>
-      <c r="AE86" s="13">
+      <c r="AE86" s="38">
         <v>628.10519999999997</v>
       </c>
-      <c r="AF86" s="13">
+      <c r="AF86" s="38">
         <v>106.2246</v>
       </c>
-      <c r="AG86" s="13">
+      <c r="AG86" s="38">
         <v>451.82409999999999</v>
       </c>
-      <c r="AH86" s="30">
+      <c r="AH86" s="29">
         <v>15519.7027</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
-      <c r="A87" s="38">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A87" s="39">
         <v>44927</v>
       </c>
-      <c r="B87" s="39">
+      <c r="B87" s="31">
         <v>208.7199</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="31">
         <v>342.36309999999997</v>
       </c>
-      <c r="D87" s="39">
+      <c r="D87" s="31">
         <v>54.502600000000001</v>
       </c>
-      <c r="E87" s="39">
+      <c r="E87" s="31">
         <v>37.3964</v>
       </c>
-      <c r="F87" s="39">
+      <c r="F87" s="31">
         <v>252.4307</v>
       </c>
-      <c r="G87" s="39">
+      <c r="G87" s="31">
         <v>114.9469</v>
       </c>
-      <c r="H87" s="39">
+      <c r="H87" s="31">
         <v>958.11189999999999</v>
       </c>
-      <c r="I87" s="39">
+      <c r="I87" s="31">
         <v>398.71719999999999</v>
       </c>
-      <c r="J87" s="39">
+      <c r="J87" s="31">
         <v>750.29269999999997</v>
       </c>
-      <c r="K87" s="39">
+      <c r="K87" s="31">
         <v>297.70870000000002</v>
       </c>
-      <c r="L87" s="39">
+      <c r="L87" s="31">
         <v>817.2038</v>
       </c>
-      <c r="M87" s="39">
+      <c r="M87" s="31">
         <v>1173.8215</v>
       </c>
-      <c r="N87" s="39">
+      <c r="N87" s="31">
         <v>718.53869999999995</v>
       </c>
-      <c r="O87" s="39">
+      <c r="O87" s="31">
         <v>378.51170000000002</v>
       </c>
-      <c r="P87" s="39">
+      <c r="P87" s="31">
         <v>1272.9387999999999</v>
       </c>
-      <c r="Q87" s="39">
+      <c r="Q87" s="31">
         <v>1219.4816000000001</v>
       </c>
-      <c r="R87" s="39">
+      <c r="R87" s="31">
         <v>256.98540000000003</v>
       </c>
-      <c r="S87" s="39">
+      <c r="S87" s="31">
         <v>195.17580000000001</v>
       </c>
-      <c r="T87" s="39">
+      <c r="T87" s="31">
         <v>341.79689999999999</v>
       </c>
-      <c r="U87" s="39">
+      <c r="U87" s="31">
         <v>707.55370000000005</v>
       </c>
-      <c r="V87" s="39">
+      <c r="V87" s="31">
         <v>699.0942</v>
       </c>
-      <c r="W87" s="39">
+      <c r="W87" s="31">
         <v>272.04259999999999</v>
       </c>
-      <c r="X87" s="39">
+      <c r="X87" s="31">
         <v>93.614800000000002</v>
       </c>
-      <c r="Y87" s="39">
+      <c r="Y87" s="31">
         <v>445.20260000000002</v>
       </c>
-      <c r="Z87" s="39">
+      <c r="Z87" s="31">
         <v>268.4941</v>
       </c>
-      <c r="AA87" s="39">
+      <c r="AA87" s="31">
         <v>211.07230000000001</v>
       </c>
-      <c r="AB87" s="39">
+      <c r="AB87" s="31">
         <v>94.363100000000003</v>
       </c>
-      <c r="AC87" s="39">
+      <c r="AC87" s="31">
         <v>253.80930000000001</v>
       </c>
-      <c r="AD87" s="39">
+      <c r="AD87" s="31">
         <v>85.034700000000001</v>
       </c>
-      <c r="AE87" s="39">
+      <c r="AE87" s="31">
         <v>559.7319</v>
       </c>
-      <c r="AF87" s="39">
+      <c r="AF87" s="31">
         <v>98.381399999999999</v>
       </c>
-      <c r="AG87" s="39">
+      <c r="AG87" s="31">
         <v>392.3143</v>
       </c>
-      <c r="AH87" s="40">
+      <c r="AH87" s="32">
         <v>13970.3531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B88" s="13">
+        <v>246.26159999999999</v>
+      </c>
+      <c r="C88" s="13">
+        <v>372.28879999999998</v>
+      </c>
+      <c r="D88" s="13">
+        <v>49.724200000000003</v>
+      </c>
+      <c r="E88" s="13">
+        <v>45.951099999999997</v>
+      </c>
+      <c r="F88" s="13">
+        <v>266.98070000000001</v>
+      </c>
+      <c r="G88" s="13">
+        <v>122.3442</v>
+      </c>
+      <c r="H88" s="13">
+        <v>1097.4408000000001</v>
+      </c>
+      <c r="I88" s="13">
+        <v>418.2285</v>
+      </c>
+      <c r="J88" s="13">
+        <v>885.22709999999995</v>
+      </c>
+      <c r="K88" s="13">
+        <v>358.35849999999999</v>
+      </c>
+      <c r="L88" s="13">
+        <v>1154.6321</v>
+      </c>
+      <c r="M88" s="13">
+        <v>1438.6977999999999</v>
+      </c>
+      <c r="N88" s="13">
+        <v>823.226</v>
+      </c>
+      <c r="O88" s="13">
+        <v>451.48070000000001</v>
+      </c>
+      <c r="P88" s="13">
+        <v>1375.0473</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>1381.9154000000001</v>
+      </c>
+      <c r="R88" s="13">
+        <v>294.18099999999998</v>
+      </c>
+      <c r="S88" s="13">
+        <v>226.87280000000001</v>
+      </c>
+      <c r="T88" s="13">
+        <v>376.3254</v>
+      </c>
+      <c r="U88" s="13">
+        <v>811.29420000000005</v>
+      </c>
+      <c r="V88" s="13">
+        <v>818.41780000000006</v>
+      </c>
+      <c r="W88" s="13">
+        <v>324.30450000000002</v>
+      </c>
+      <c r="X88" s="13">
+        <v>96.924599999999998</v>
+      </c>
+      <c r="Y88" s="13">
+        <v>538.9742</v>
+      </c>
+      <c r="Z88" s="13">
+        <v>299.1155</v>
+      </c>
+      <c r="AA88" s="13">
+        <v>234.87370000000001</v>
+      </c>
+      <c r="AB88" s="13">
+        <v>104.62820000000001</v>
+      </c>
+      <c r="AC88" s="13">
+        <v>292.38249999999999</v>
+      </c>
+      <c r="AD88" s="13">
+        <v>105.0543</v>
+      </c>
+      <c r="AE88" s="13">
+        <v>675.13099999999997</v>
+      </c>
+      <c r="AF88" s="13">
+        <v>109.22410000000001</v>
+      </c>
+      <c r="AG88" s="13">
+        <v>472.39490000000001</v>
+      </c>
+      <c r="AH88" s="30">
+        <v>16267.903399999999</v>
       </c>
     </row>
   </sheetData>
